--- a/ブレーカ調査/CT単価表.xlsx
+++ b/ブレーカ調査/CT単価表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp-my.sharepoint.com/personal/masakazu_nishi_zs_kyocera_jp/Documents/電力計設置/ブレーカ調査/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD300D897696AF0B3573088B35299F240" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB4C11E6-7907-4F5A-8EED-B8BF2C7C80CE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD300D897696AF0B3573088B35299F240" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B16B99-7AFD-47E2-812D-33BA7356D02D}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1350" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="7020" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,7 +509,7 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D6">
         <v>5200</v>
